--- a/Code/Results/Cases/Case_6_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_bus/vm_pu.xlsx
@@ -445,7 +445,7 @@
         <v>1.070837508814123</v>
       </c>
       <c r="L2">
-        <v>1.06401513046428</v>
+        <v>1.064015130464281</v>
       </c>
       <c r="M2">
         <v>1.07634446240168</v>
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053336626821864</v>
+        <v>1.053336626821867</v>
       </c>
       <c r="D3">
-        <v>1.067288571427492</v>
+        <v>1.067288571427495</v>
       </c>
       <c r="E3">
-        <v>1.061004010978585</v>
+        <v>1.061004010978588</v>
       </c>
       <c r="F3">
-        <v>1.073462611987487</v>
+        <v>1.073462611987491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072560348529167</v>
+        <v>1.072560348529168</v>
       </c>
       <c r="J3">
-        <v>1.072471828776634</v>
+        <v>1.072471828776637</v>
       </c>
       <c r="K3">
-        <v>1.07712721837874</v>
+        <v>1.077127218378743</v>
       </c>
       <c r="L3">
-        <v>1.070911590359581</v>
+        <v>1.070911590359584</v>
       </c>
       <c r="M3">
-        <v>1.08323450205361</v>
+        <v>1.083234502053613</v>
       </c>
       <c r="N3">
-        <v>1.073994861787735</v>
+        <v>1.073994861787738</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,10 +506,10 @@
         <v>1.058898129875018</v>
       </c>
       <c r="D4">
-        <v>1.071749924282245</v>
+        <v>1.071749924282244</v>
       </c>
       <c r="E4">
-        <v>1.065853710223338</v>
+        <v>1.065853710223337</v>
       </c>
       <c r="F4">
         <v>1.078301559116025</v>
@@ -521,19 +521,19 @@
         <v>1.074634222331217</v>
       </c>
       <c r="J4">
-        <v>1.076906451359022</v>
+        <v>1.076906451359021</v>
       </c>
       <c r="K4">
         <v>1.081053155989443</v>
       </c>
       <c r="L4">
-        <v>1.075217358950288</v>
+        <v>1.075217358950286</v>
       </c>
       <c r="M4">
-        <v>1.087538600597689</v>
+        <v>1.087538600597688</v>
       </c>
       <c r="N4">
-        <v>1.078435782042849</v>
+        <v>1.078435782042848</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061192906105684</v>
+        <v>1.061192906105683</v>
       </c>
       <c r="D5">
-        <v>1.073591055966577</v>
+        <v>1.073591055966576</v>
       </c>
       <c r="E5">
-        <v>1.067855015674659</v>
+        <v>1.067855015674657</v>
       </c>
       <c r="F5">
-        <v>1.080299006560376</v>
+        <v>1.080299006560375</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075486261755397</v>
+        <v>1.075486261755396</v>
       </c>
       <c r="J5">
-        <v>1.078734822941752</v>
+        <v>1.078734822941751</v>
       </c>
       <c r="K5">
-        <v>1.082671227128416</v>
+        <v>1.082671227128415</v>
       </c>
       <c r="L5">
-        <v>1.076992263639679</v>
+        <v>1.076992263639677</v>
       </c>
       <c r="M5">
-        <v>1.089313362163062</v>
+        <v>1.089313362163061</v>
       </c>
       <c r="N5">
-        <v>1.080266750122943</v>
+        <v>1.080266750122942</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,7 +585,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061575751876399</v>
+        <v>1.061575751876398</v>
       </c>
       <c r="D6">
         <v>1.073898232845893</v>
@@ -606,16 +606,16 @@
         <v>1.079039770644715</v>
       </c>
       <c r="K6">
-        <v>1.082941065148298</v>
+        <v>1.082941065148297</v>
       </c>
       <c r="L6">
         <v>1.07728827350297</v>
       </c>
       <c r="M6">
-        <v>1.089609379799493</v>
+        <v>1.089609379799492</v>
       </c>
       <c r="N6">
-        <v>1.080572130886623</v>
+        <v>1.080572130886622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058928959149808</v>
+        <v>1.05892895914981</v>
       </c>
       <c r="D7">
-        <v>1.071774658019275</v>
+        <v>1.071774658019276</v>
       </c>
       <c r="E7">
-        <v>1.065880596044209</v>
+        <v>1.065880596044211</v>
       </c>
       <c r="F7">
-        <v>1.078328390841071</v>
+        <v>1.078328390841072</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074645683745001</v>
+        <v>1.074645683745002</v>
       </c>
       <c r="J7">
-        <v>1.076931020459244</v>
+        <v>1.076931020459245</v>
       </c>
       <c r="K7">
-        <v>1.081074901437855</v>
+        <v>1.081074901437856</v>
       </c>
       <c r="L7">
-        <v>1.075241210940185</v>
+        <v>1.075241210940186</v>
       </c>
       <c r="M7">
-        <v>1.087562448523402</v>
+        <v>1.087562448523403</v>
       </c>
       <c r="N7">
-        <v>1.078460386034011</v>
+        <v>1.078460386034013</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047490640532228</v>
+        <v>1.047490640532225</v>
       </c>
       <c r="D8">
-        <v>1.062600383876261</v>
+        <v>1.062600383876259</v>
       </c>
       <c r="E8">
-        <v>1.055907306725111</v>
+        <v>1.055907306725109</v>
       </c>
       <c r="F8">
-        <v>1.06837929300797</v>
+        <v>1.068379293007968</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070367704982592</v>
+        <v>1.070367704982591</v>
       </c>
       <c r="J8">
-        <v>1.067805533719855</v>
+        <v>1.067805533719852</v>
       </c>
       <c r="K8">
-        <v>1.072994253829192</v>
+        <v>1.07299425382919</v>
       </c>
       <c r="L8">
-        <v>1.066379709174933</v>
+        <v>1.066379709174931</v>
       </c>
       <c r="M8">
-        <v>1.078706334244477</v>
+        <v>1.078706334244474</v>
       </c>
       <c r="N8">
-        <v>1.069321940056744</v>
+        <v>1.069321940056741</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,7 +708,7 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025705049399662</v>
+        <v>1.025705049399663</v>
       </c>
       <c r="D9">
         <v>1.04514728705642</v>
@@ -717,7 +717,7 @@
         <v>1.036927837154792</v>
       </c>
       <c r="F9">
-        <v>1.049467450457295</v>
+        <v>1.049467450457296</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.062099636015263</v>
       </c>
       <c r="J9">
-        <v>1.050381644574122</v>
+        <v>1.050381644574123</v>
       </c>
       <c r="K9">
-        <v>1.057548014107157</v>
+        <v>1.057548014107158</v>
       </c>
       <c r="L9">
-        <v>1.04944890778629</v>
+        <v>1.049448907786291</v>
       </c>
       <c r="M9">
         <v>1.061805881692278</v>
       </c>
       <c r="N9">
-        <v>1.051873306989876</v>
+        <v>1.051873306989877</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009841417523757</v>
+        <v>1.009841417523753</v>
       </c>
       <c r="D10">
-        <v>1.032462522616751</v>
+        <v>1.032462522616748</v>
       </c>
       <c r="E10">
-        <v>1.023126301110928</v>
+        <v>1.023126301110925</v>
       </c>
       <c r="F10">
-        <v>1.035731652006993</v>
+        <v>1.035731652006989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056001960597318</v>
+        <v>1.056001960597316</v>
       </c>
       <c r="J10">
-        <v>1.037669940407684</v>
+        <v>1.037669940407681</v>
       </c>
       <c r="K10">
-        <v>1.046269390813446</v>
+        <v>1.046269390813443</v>
       </c>
       <c r="L10">
-        <v>1.03709019072511</v>
+        <v>1.037090190725107</v>
       </c>
       <c r="M10">
-        <v>1.049484399254173</v>
+        <v>1.04948439925417</v>
       </c>
       <c r="N10">
-        <v>1.039143550745468</v>
+        <v>1.039143550745465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -796,10 +796,10 @@
         <v>1.02667076749795</v>
       </c>
       <c r="E11">
-        <v>1.016822077880648</v>
+        <v>1.016822077880649</v>
       </c>
       <c r="F11">
-        <v>1.029461858260891</v>
+        <v>1.029461858260892</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>1.031853190854435</v>
       </c>
       <c r="K11">
-        <v>1.041106649985046</v>
+        <v>1.041106649985047</v>
       </c>
       <c r="L11">
         <v>1.031433577428384</v>
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9998286450131231</v>
+        <v>0.999828645013125</v>
       </c>
       <c r="D12">
-        <v>1.024469365575628</v>
+        <v>1.024469365575629</v>
       </c>
       <c r="E12">
-        <v>1.014425429016124</v>
+        <v>1.014425429016126</v>
       </c>
       <c r="F12">
-        <v>1.027079004712546</v>
+        <v>1.027079004712547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052127405053872</v>
+        <v>1.052127405053874</v>
       </c>
       <c r="J12">
-        <v>1.029640258660768</v>
+        <v>1.02964025866077</v>
       </c>
       <c r="K12">
-        <v>1.039142320953025</v>
+        <v>1.039142320953026</v>
       </c>
       <c r="L12">
-        <v>1.02928138244173</v>
+        <v>1.029281382441732</v>
       </c>
       <c r="M12">
-        <v>1.041705173751401</v>
+        <v>1.041705173751402</v>
       </c>
       <c r="N12">
-        <v>1.031102465929455</v>
+        <v>1.031102465929457</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -875,34 +875,34 @@
         <v>1.000423513337978</v>
       </c>
       <c r="D13">
-        <v>1.024943932183946</v>
+        <v>1.024943932183947</v>
       </c>
       <c r="E13">
-        <v>1.01494210808895</v>
+        <v>1.014942108088951</v>
       </c>
       <c r="F13">
-        <v>1.027592677097836</v>
+        <v>1.027592677097837</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052358079375465</v>
+        <v>1.052358079375466</v>
       </c>
       <c r="J13">
-        <v>1.030117404613768</v>
+        <v>1.030117404613769</v>
       </c>
       <c r="K13">
-        <v>1.039565872280772</v>
+        <v>1.039565872280773</v>
       </c>
       <c r="L13">
-        <v>1.029745440349843</v>
+        <v>1.029745440349844</v>
       </c>
       <c r="M13">
         <v>1.042167347315688</v>
       </c>
       <c r="N13">
-        <v>1.031580289484437</v>
+        <v>1.031580289484438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002360968204393</v>
+        <v>1.002360968204388</v>
       </c>
       <c r="D14">
-        <v>1.026489853450954</v>
+        <v>1.02648985345095</v>
       </c>
       <c r="E14">
-        <v>1.016625128013087</v>
+        <v>1.016625128013084</v>
       </c>
       <c r="F14">
-        <v>1.029266027472894</v>
+        <v>1.029266027472891</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053108968541161</v>
+        <v>1.05310896854116</v>
       </c>
       <c r="J14">
-        <v>1.031671371107103</v>
+        <v>1.031671371107099</v>
       </c>
       <c r="K14">
-        <v>1.0409452599486</v>
+        <v>1.040945259948597</v>
       </c>
       <c r="L14">
-        <v>1.031256751594721</v>
+        <v>1.031256751594717</v>
       </c>
       <c r="M14">
-        <v>1.043672631276367</v>
+        <v>1.043672631276363</v>
       </c>
       <c r="N14">
-        <v>1.033136462788436</v>
+        <v>1.033136462788431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003545905606977</v>
+        <v>1.003545905606979</v>
       </c>
       <c r="D15">
-        <v>1.027435541406626</v>
+        <v>1.027435541406627</v>
       </c>
       <c r="E15">
-        <v>1.0176546204425</v>
+        <v>1.017654620442502</v>
       </c>
       <c r="F15">
-        <v>1.030289699208982</v>
+        <v>1.030289699208984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053567896359832</v>
+        <v>1.053567896359833</v>
       </c>
       <c r="J15">
-        <v>1.032621710278856</v>
+        <v>1.032621710278859</v>
       </c>
       <c r="K15">
-        <v>1.041788808565249</v>
+        <v>1.041788808565251</v>
       </c>
       <c r="L15">
-        <v>1.032180981112828</v>
+        <v>1.03218098111283</v>
       </c>
       <c r="M15">
-        <v>1.044593257844947</v>
+        <v>1.044593257844948</v>
       </c>
       <c r="N15">
-        <v>1.034088151550818</v>
+        <v>1.03408815155082</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010314160048243</v>
+        <v>1.01031416004824</v>
       </c>
       <c r="D16">
-        <v>1.032840179369642</v>
+        <v>1.03284017936964</v>
       </c>
       <c r="E16">
-        <v>1.023537314800192</v>
+        <v>1.02353731480019</v>
       </c>
       <c r="F16">
-        <v>1.036140515395692</v>
+        <v>1.036140515395689</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056184441100692</v>
+        <v>1.056184441100691</v>
       </c>
       <c r="J16">
-        <v>1.038048955338009</v>
+        <v>1.038048955338007</v>
       </c>
       <c r="K16">
-        <v>1.04660575931502</v>
+        <v>1.046605759315017</v>
       </c>
       <c r="L16">
-        <v>1.037458744564084</v>
+        <v>1.037458744564082</v>
       </c>
       <c r="M16">
-        <v>1.049851670105406</v>
+        <v>1.049851670105404</v>
       </c>
       <c r="N16">
-        <v>1.039523103920469</v>
+        <v>1.039523103920466</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014452216004016</v>
+        <v>1.014452216004015</v>
       </c>
       <c r="D17">
-        <v>1.03614689614234</v>
+        <v>1.036146896142339</v>
       </c>
       <c r="E17">
         <v>1.027135805155232</v>
       </c>
       <c r="F17">
-        <v>1.039720678527069</v>
+        <v>1.039720678527068</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057779857591939</v>
+        <v>1.057779857591938</v>
       </c>
       <c r="J17">
-        <v>1.041366125886783</v>
+        <v>1.041366125886782</v>
       </c>
       <c r="K17">
-        <v>1.049549493727672</v>
+        <v>1.049549493727671</v>
       </c>
       <c r="L17">
-        <v>1.04068420546191</v>
+        <v>1.040684205461909</v>
       </c>
       <c r="M17">
-        <v>1.053066347571115</v>
+        <v>1.053066347571114</v>
       </c>
       <c r="N17">
-        <v>1.042844985231907</v>
+        <v>1.042844985231906</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016829275563307</v>
+        <v>1.016829275563306</v>
       </c>
       <c r="D18">
-        <v>1.038047170735797</v>
+        <v>1.038047170735796</v>
       </c>
       <c r="E18">
-        <v>1.029203519803473</v>
+        <v>1.029203519803472</v>
       </c>
       <c r="F18">
-        <v>1.041778270315901</v>
+        <v>1.0417782703159</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.058694732649649</v>
       </c>
       <c r="J18">
-        <v>1.043271230533333</v>
+        <v>1.043271230533332</v>
       </c>
       <c r="K18">
-        <v>1.051239960356944</v>
+        <v>1.051239960356943</v>
       </c>
       <c r="L18">
-        <v>1.042536508634907</v>
+        <v>1.042536508634906</v>
       </c>
       <c r="M18">
-        <v>1.054912822869778</v>
+        <v>1.054912822869777</v>
       </c>
       <c r="N18">
-        <v>1.044752795345573</v>
+        <v>1.044752795345572</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017633773983891</v>
+        <v>1.017633773983892</v>
       </c>
       <c r="D19">
-        <v>1.038690427780598</v>
+        <v>1.038690427780599</v>
       </c>
       <c r="E19">
-        <v>1.029903419013071</v>
+        <v>1.029903419013072</v>
       </c>
       <c r="F19">
-        <v>1.04247481103064</v>
+        <v>1.042474811030641</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>1.059004091328513</v>
       </c>
       <c r="J19">
-        <v>1.043915926206583</v>
+        <v>1.043915926206584</v>
       </c>
       <c r="K19">
         <v>1.051811991665984</v>
@@ -1148,7 +1148,7 @@
         <v>1.055537716289289</v>
       </c>
       <c r="N19">
-        <v>1.045398406560627</v>
+        <v>1.045398406560628</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1162,25 +1162,25 @@
         <v>1.014012073281066</v>
       </c>
       <c r="D20">
-        <v>1.035795096756088</v>
+        <v>1.035795096756087</v>
       </c>
       <c r="E20">
         <v>1.026752989007449</v>
       </c>
       <c r="F20">
-        <v>1.039339769321398</v>
+        <v>1.039339769321397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057610326671606</v>
+        <v>1.057610326671605</v>
       </c>
       <c r="J20">
         <v>1.041013337626753</v>
       </c>
       <c r="K20">
-        <v>1.049236438285392</v>
+        <v>1.049236438285391</v>
       </c>
       <c r="L20">
         <v>1.040341184217963</v>
@@ -1189,7 +1189,7 @@
         <v>1.052724434942015</v>
       </c>
       <c r="N20">
-        <v>1.042491695972082</v>
+        <v>1.042491695972081</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001792281795746</v>
+        <v>1.001792281795747</v>
       </c>
       <c r="D21">
-        <v>1.026036046368568</v>
+        <v>1.02603604636857</v>
       </c>
       <c r="E21">
-        <v>1.016131088781217</v>
+        <v>1.016131088781218</v>
       </c>
       <c r="F21">
-        <v>1.028774806906301</v>
+        <v>1.028774806906302</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052888630743899</v>
+        <v>1.0528886307439</v>
       </c>
       <c r="J21">
-        <v>1.031215259100217</v>
+        <v>1.031215259100219</v>
       </c>
       <c r="K21">
-        <v>1.040540394646743</v>
+        <v>1.040540394646745</v>
       </c>
       <c r="L21">
-        <v>1.030813164403913</v>
+        <v>1.030813164403914</v>
       </c>
       <c r="M21">
-        <v>1.043230795743</v>
+        <v>1.043230795743001</v>
       </c>
       <c r="N21">
-        <v>1.032679703050183</v>
+        <v>1.032679703050185</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9937308282182143</v>
+        <v>0.9937308282182111</v>
       </c>
       <c r="D22">
-        <v>1.019607147533367</v>
+        <v>1.019607147533364</v>
       </c>
       <c r="E22">
-        <v>1.009131023096827</v>
+        <v>1.009131023096824</v>
       </c>
       <c r="F22">
-        <v>1.021816434753893</v>
+        <v>1.02181643475389</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049759631008332</v>
+        <v>1.049759631008331</v>
       </c>
       <c r="J22">
-        <v>1.024748669085373</v>
+        <v>1.024748669085369</v>
       </c>
       <c r="K22">
-        <v>1.034799939223359</v>
+        <v>1.034799939223356</v>
       </c>
       <c r="L22">
-        <v>1.024523737217491</v>
+        <v>1.024523737217488</v>
       </c>
       <c r="M22">
-        <v>1.03696774851625</v>
+        <v>1.036967748516247</v>
       </c>
       <c r="N22">
-        <v>1.026203929735789</v>
+        <v>1.026203929735786</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9980428345803434</v>
+        <v>0.998042834580342</v>
       </c>
       <c r="D23">
-        <v>1.023044952757871</v>
+        <v>1.02304495275787</v>
       </c>
       <c r="E23">
-        <v>1.012874541374188</v>
+        <v>1.012874541374187</v>
       </c>
       <c r="F23">
-        <v>1.025537249426842</v>
+        <v>1.025537249426841</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051434572568727</v>
+        <v>1.051434572568726</v>
       </c>
       <c r="J23">
-        <v>1.028207795866756</v>
+        <v>1.028207795866755</v>
       </c>
       <c r="K23">
-        <v>1.037870731186198</v>
+        <v>1.037870731186197</v>
       </c>
       <c r="L23">
-        <v>1.027888186786702</v>
+        <v>1.027888186786701</v>
       </c>
       <c r="M23">
-        <v>1.040317729659701</v>
+        <v>1.0403177296597</v>
       </c>
       <c r="N23">
-        <v>1.029667968873969</v>
+        <v>1.029667968873968</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014211067427074</v>
+        <v>1.014211067427076</v>
       </c>
       <c r="D24">
-        <v>1.035954147380783</v>
+        <v>1.035954147380784</v>
       </c>
       <c r="E24">
-        <v>1.026926063218527</v>
+        <v>1.026926063218528</v>
       </c>
       <c r="F24">
-        <v>1.039511980123107</v>
+        <v>1.039511980123108</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05768697873294</v>
+        <v>1.057686978732941</v>
       </c>
       <c r="J24">
-        <v>1.041172838979771</v>
+        <v>1.041172838979772</v>
       </c>
       <c r="K24">
         <v>1.049377976305743</v>
       </c>
       <c r="L24">
-        <v>1.04049627015247</v>
+        <v>1.040496270152471</v>
       </c>
       <c r="M24">
-        <v>1.052879018520029</v>
+        <v>1.05287901852003</v>
       </c>
       <c r="N24">
-        <v>1.042651423835316</v>
+        <v>1.042651423835317</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1385,13 +1385,13 @@
         <v>1.055063551177965</v>
       </c>
       <c r="K25">
-        <v>1.061700316676602</v>
+        <v>1.061700316676603</v>
       </c>
       <c r="L25">
         <v>1.053999516880194</v>
       </c>
       <c r="M25">
-        <v>1.066345892777078</v>
+        <v>1.066345892777079</v>
       </c>
       <c r="N25">
         <v>1.056561862438119</v>

--- a/Code/Results/Cases/Case_6_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044443196323965</v>
+        <v>1.020522863567367</v>
       </c>
       <c r="D2">
-        <v>1.060157156776169</v>
+        <v>1.039892543944716</v>
       </c>
       <c r="E2">
-        <v>1.053250974365526</v>
+        <v>1.034327291001485</v>
       </c>
       <c r="F2">
-        <v>1.065730762337388</v>
+        <v>1.045778390960448</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069219918002307</v>
+        <v>1.058407411990749</v>
       </c>
       <c r="J2">
-        <v>1.065371274832261</v>
+        <v>1.042106599587694</v>
       </c>
       <c r="K2">
-        <v>1.070837508814123</v>
+        <v>1.050822740222657</v>
       </c>
       <c r="L2">
-        <v>1.064015130464281</v>
+        <v>1.045328242527132</v>
       </c>
       <c r="M2">
-        <v>1.07634446240168</v>
+        <v>1.056634777121727</v>
       </c>
       <c r="N2">
-        <v>1.066884224242316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017446512270274</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047006315366144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053336626821867</v>
+        <v>1.025360820450328</v>
       </c>
       <c r="D3">
-        <v>1.067288571427495</v>
+        <v>1.043287922957521</v>
       </c>
       <c r="E3">
-        <v>1.061004010978588</v>
+        <v>1.038267413586505</v>
       </c>
       <c r="F3">
-        <v>1.073462611987491</v>
+        <v>1.049766559271488</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072560348529168</v>
+        <v>1.0597389845336</v>
       </c>
       <c r="J3">
-        <v>1.072471828776637</v>
+        <v>1.045183214309163</v>
       </c>
       <c r="K3">
-        <v>1.077127218378743</v>
+        <v>1.053395339291174</v>
       </c>
       <c r="L3">
-        <v>1.070911590359584</v>
+        <v>1.048432994119216</v>
       </c>
       <c r="M3">
-        <v>1.083234502053613</v>
+        <v>1.059799932403769</v>
       </c>
       <c r="N3">
-        <v>1.073994861787738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018507640494362</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04882269476405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058898129875018</v>
+        <v>1.028428694439107</v>
       </c>
       <c r="D4">
-        <v>1.071749924282244</v>
+        <v>1.045443492456744</v>
       </c>
       <c r="E4">
-        <v>1.065853710223337</v>
+        <v>1.040771539281045</v>
       </c>
       <c r="F4">
-        <v>1.078301559116025</v>
+        <v>1.052300176853817</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.074634222331217</v>
+        <v>1.060570721016521</v>
       </c>
       <c r="J4">
-        <v>1.076906451359021</v>
+        <v>1.047132124623458</v>
       </c>
       <c r="K4">
-        <v>1.081053155989443</v>
+        <v>1.05502272842573</v>
       </c>
       <c r="L4">
-        <v>1.075217358950286</v>
+        <v>1.050401583304289</v>
       </c>
       <c r="M4">
-        <v>1.087538600597688</v>
+        <v>1.061805845858296</v>
       </c>
       <c r="N4">
-        <v>1.078435782042848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019179704664996</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049974256640366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061192906105683</v>
+        <v>1.029709000937567</v>
       </c>
       <c r="D5">
-        <v>1.073591055966576</v>
+        <v>1.046345391104296</v>
       </c>
       <c r="E5">
-        <v>1.067855015674657</v>
+        <v>1.041818631166905</v>
       </c>
       <c r="F5">
-        <v>1.080299006560375</v>
+        <v>1.053359350754602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075486261755396</v>
+        <v>1.060916195694942</v>
       </c>
       <c r="J5">
-        <v>1.078734822941751</v>
+        <v>1.047946639294655</v>
       </c>
       <c r="K5">
-        <v>1.082671227128415</v>
+        <v>1.055703480367305</v>
       </c>
       <c r="L5">
-        <v>1.076992263639677</v>
+        <v>1.05122461815804</v>
       </c>
       <c r="M5">
-        <v>1.089313362163061</v>
+        <v>1.062644217781124</v>
       </c>
       <c r="N5">
-        <v>1.080266750122942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019461489087555</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050462665138926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061575751876398</v>
+        <v>1.029929227617837</v>
       </c>
       <c r="D6">
-        <v>1.073898232845893</v>
+        <v>1.046502720847477</v>
       </c>
       <c r="E6">
-        <v>1.068188911867705</v>
+        <v>1.041999734652979</v>
       </c>
       <c r="F6">
-        <v>1.080632292563967</v>
+        <v>1.053542534364041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07562819239812</v>
+        <v>1.060977211637653</v>
       </c>
       <c r="J6">
-        <v>1.079039770644715</v>
+        <v>1.048088790100302</v>
       </c>
       <c r="K6">
-        <v>1.082941065148297</v>
+        <v>1.055823665901663</v>
       </c>
       <c r="L6">
-        <v>1.07728827350297</v>
+        <v>1.051368104028022</v>
       </c>
       <c r="M6">
-        <v>1.089609379799492</v>
+        <v>1.062790328979439</v>
       </c>
       <c r="N6">
-        <v>1.080572130886622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019511807482235</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.05055626658277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05892895914981</v>
+        <v>1.028462266112919</v>
       </c>
       <c r="D7">
-        <v>1.071774658019276</v>
+        <v>1.045472916113428</v>
       </c>
       <c r="E7">
-        <v>1.065880596044211</v>
+        <v>1.040801470084719</v>
       </c>
       <c r="F7">
-        <v>1.078328390841072</v>
+        <v>1.052330436581553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074645683745002</v>
+        <v>1.060584538046725</v>
       </c>
       <c r="J7">
-        <v>1.076931020459245</v>
+        <v>1.047159064970255</v>
       </c>
       <c r="K7">
-        <v>1.081074901437856</v>
+        <v>1.055049005983229</v>
       </c>
       <c r="L7">
-        <v>1.075241210940186</v>
+        <v>1.050428342067229</v>
       </c>
       <c r="M7">
-        <v>1.087562448523403</v>
+        <v>1.061832980054516</v>
       </c>
       <c r="N7">
-        <v>1.078460386034013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01919214180127</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050012675234223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047490640532225</v>
+        <v>1.022191834806581</v>
       </c>
       <c r="D8">
-        <v>1.062600383876259</v>
+        <v>1.041070409043154</v>
       </c>
       <c r="E8">
-        <v>1.055907306725109</v>
+        <v>1.035688548282361</v>
       </c>
       <c r="F8">
-        <v>1.068379293007968</v>
+        <v>1.047156288803394</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070367704982591</v>
+        <v>1.058875124261216</v>
       </c>
       <c r="J8">
-        <v>1.067805533719852</v>
+        <v>1.043175315408692</v>
       </c>
       <c r="K8">
-        <v>1.07299425382919</v>
+        <v>1.05172137373499</v>
       </c>
       <c r="L8">
-        <v>1.066379709174931</v>
+        <v>1.046405857988876</v>
       </c>
       <c r="M8">
-        <v>1.078706334244474</v>
+        <v>1.057733249948931</v>
       </c>
       <c r="N8">
-        <v>1.069321940056741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017819240611051</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047664347848256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025705049399663</v>
+        <v>1.01060981018304</v>
       </c>
       <c r="D9">
-        <v>1.04514728705642</v>
+        <v>1.032951931209164</v>
       </c>
       <c r="E9">
-        <v>1.036927837154792</v>
+        <v>1.026287288404977</v>
       </c>
       <c r="F9">
-        <v>1.049467450457296</v>
+        <v>1.037634670071409</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062099636015263</v>
+        <v>1.055611797207244</v>
       </c>
       <c r="J9">
-        <v>1.050381644574123</v>
+        <v>1.035793392512172</v>
       </c>
       <c r="K9">
-        <v>1.057548014107158</v>
+        <v>1.045532088489797</v>
       </c>
       <c r="L9">
-        <v>1.049448907786291</v>
+        <v>1.038967798714963</v>
       </c>
       <c r="M9">
-        <v>1.061805881692278</v>
+        <v>1.05014529655633</v>
       </c>
       <c r="N9">
-        <v>1.051873306989877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015269208301549</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043285042902057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009841417523753</v>
+        <v>1.002513975784713</v>
       </c>
       <c r="D10">
-        <v>1.032462522616748</v>
+        <v>1.027298488501264</v>
       </c>
       <c r="E10">
-        <v>1.023126301110925</v>
+        <v>1.019752262746133</v>
       </c>
       <c r="F10">
-        <v>1.035731652006989</v>
+        <v>1.031010653181446</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056001960597316</v>
+        <v>1.053268829578161</v>
       </c>
       <c r="J10">
-        <v>1.037669940407681</v>
+        <v>1.030628204210157</v>
       </c>
       <c r="K10">
-        <v>1.046269390813443</v>
+        <v>1.041191753184586</v>
       </c>
       <c r="L10">
-        <v>1.037090190725107</v>
+        <v>1.033773812856129</v>
       </c>
       <c r="M10">
-        <v>1.04948439925417</v>
+        <v>1.044841699096157</v>
       </c>
       <c r="N10">
-        <v>1.039143550745465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013486372387574</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040232871727157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002587667034138</v>
+        <v>0.9989304532629686</v>
       </c>
       <c r="D11">
-        <v>1.02667076749795</v>
+        <v>1.024808384481982</v>
       </c>
       <c r="E11">
-        <v>1.016822077880649</v>
+        <v>1.01687252993717</v>
       </c>
       <c r="F11">
-        <v>1.029461858260892</v>
+        <v>1.028089821995476</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053196787854429</v>
+        <v>1.052222677984212</v>
       </c>
       <c r="J11">
-        <v>1.031853190854435</v>
+        <v>1.028347794419827</v>
       </c>
       <c r="K11">
-        <v>1.041106649985047</v>
+        <v>1.039277140405679</v>
       </c>
       <c r="L11">
-        <v>1.031433577428384</v>
+        <v>1.031483118578533</v>
       </c>
       <c r="M11">
-        <v>1.043848762898612</v>
+        <v>1.042500759958685</v>
       </c>
       <c r="N11">
-        <v>1.033318540740664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012704293414683</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038911819405768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.999828645013125</v>
+        <v>0.9975715830551382</v>
       </c>
       <c r="D12">
-        <v>1.024469365575629</v>
+        <v>1.023861260007966</v>
       </c>
       <c r="E12">
-        <v>1.014425429016126</v>
+        <v>1.015779990981984</v>
       </c>
       <c r="F12">
-        <v>1.027079004712547</v>
+        <v>1.026981873987977</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052127405053874</v>
+        <v>1.051820996263216</v>
       </c>
       <c r="J12">
-        <v>1.02964025866077</v>
+        <v>1.027479074622626</v>
       </c>
       <c r="K12">
-        <v>1.039142320953026</v>
+        <v>1.038545162205173</v>
       </c>
       <c r="L12">
-        <v>1.029281382441732</v>
+        <v>1.030610989567836</v>
       </c>
       <c r="M12">
-        <v>1.041705173751402</v>
+        <v>1.041609778881283</v>
       </c>
       <c r="N12">
-        <v>1.031102465929457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012403743528051</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038394291966823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000423513337978</v>
+        <v>0.9978614276851585</v>
       </c>
       <c r="D13">
-        <v>1.024943932183947</v>
+        <v>1.024062500340258</v>
       </c>
       <c r="E13">
-        <v>1.014942108088951</v>
+        <v>1.016012560131277</v>
       </c>
       <c r="F13">
-        <v>1.027592677097837</v>
+        <v>1.027217807284186</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052358079375466</v>
+        <v>1.051906210226239</v>
       </c>
       <c r="J13">
-        <v>1.030117404613769</v>
+        <v>1.027663619079333</v>
       </c>
       <c r="K13">
-        <v>1.039565872280773</v>
+        <v>1.03870024104358</v>
       </c>
       <c r="L13">
-        <v>1.029745440349844</v>
+        <v>1.0307962565346</v>
       </c>
       <c r="M13">
-        <v>1.042167347315688</v>
+        <v>1.041799148260268</v>
       </c>
       <c r="N13">
-        <v>1.031580289484438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012467063464394</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038501455689137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002360968204388</v>
+        <v>0.9988174476444655</v>
       </c>
       <c r="D14">
-        <v>1.02648985345095</v>
+        <v>1.024729285691465</v>
       </c>
       <c r="E14">
-        <v>1.016625128013084</v>
+        <v>1.016781472074492</v>
       </c>
       <c r="F14">
-        <v>1.029266027472891</v>
+        <v>1.027997515157366</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05310896854116</v>
+        <v>1.052189077305075</v>
       </c>
       <c r="J14">
-        <v>1.031671371107099</v>
+        <v>1.02827522956191</v>
       </c>
       <c r="K14">
-        <v>1.040945259948597</v>
+        <v>1.039215819172775</v>
       </c>
       <c r="L14">
-        <v>1.031256751594717</v>
+        <v>1.031410268152614</v>
       </c>
       <c r="M14">
-        <v>1.043672631276363</v>
+        <v>1.042426375903827</v>
       </c>
       <c r="N14">
-        <v>1.033136462788431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01267896438617</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038867401099753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003545905606979</v>
+        <v>0.9994090356138399</v>
       </c>
       <c r="D15">
-        <v>1.027435541406627</v>
+        <v>1.025143486882048</v>
       </c>
       <c r="E15">
-        <v>1.017654620442502</v>
+        <v>1.01725826349309</v>
       </c>
       <c r="F15">
-        <v>1.030289699208984</v>
+        <v>1.028480834069695</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053567896359833</v>
+        <v>1.052364951659956</v>
       </c>
       <c r="J15">
-        <v>1.032621710278859</v>
+        <v>1.028655182239849</v>
       </c>
       <c r="K15">
-        <v>1.041788808565251</v>
+        <v>1.039536932600056</v>
       </c>
       <c r="L15">
-        <v>1.03218098111283</v>
+        <v>1.03179172967933</v>
       </c>
       <c r="M15">
-        <v>1.044593257844948</v>
+        <v>1.042815854765011</v>
       </c>
       <c r="N15">
-        <v>1.03408815155082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012811640236649</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03910027855039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01031416004824</v>
+        <v>1.002789868598542</v>
       </c>
       <c r="D16">
-        <v>1.03284017936964</v>
+        <v>1.027503160210586</v>
       </c>
       <c r="E16">
-        <v>1.02353731480019</v>
+        <v>1.019980958075147</v>
       </c>
       <c r="F16">
-        <v>1.036140515395689</v>
+        <v>1.031241430589319</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056184441100691</v>
+        <v>1.053358829044409</v>
       </c>
       <c r="J16">
-        <v>1.038048955338007</v>
+        <v>1.030816800207708</v>
       </c>
       <c r="K16">
-        <v>1.046605759315017</v>
+        <v>1.041357705726811</v>
       </c>
       <c r="L16">
-        <v>1.037458744564082</v>
+        <v>1.033962937515914</v>
       </c>
       <c r="M16">
-        <v>1.049851670105404</v>
+        <v>1.045033536502638</v>
       </c>
       <c r="N16">
-        <v>1.039523103920466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01355993073469</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040390758024964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014452216004015</v>
+        <v>1.004882941355031</v>
       </c>
       <c r="D17">
-        <v>1.036146896142339</v>
+        <v>1.028965545795567</v>
       </c>
       <c r="E17">
-        <v>1.027135805155232</v>
+        <v>1.021669049243458</v>
       </c>
       <c r="F17">
-        <v>1.039720678527068</v>
+        <v>1.032952742476743</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057779857591938</v>
+        <v>1.053970383494469</v>
       </c>
       <c r="J17">
-        <v>1.041366125886782</v>
+        <v>1.032154759978445</v>
       </c>
       <c r="K17">
-        <v>1.049549493727671</v>
+        <v>1.042484074770689</v>
       </c>
       <c r="L17">
-        <v>1.040684205461909</v>
+        <v>1.035307517369054</v>
       </c>
       <c r="M17">
-        <v>1.053066347571114</v>
+        <v>1.046406649121304</v>
       </c>
       <c r="N17">
-        <v>1.042844985231906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01402308124056</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.0411896967338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016829275563306</v>
+        <v>1.006081835419593</v>
       </c>
       <c r="D18">
-        <v>1.038047170735796</v>
+        <v>1.029799766856391</v>
       </c>
       <c r="E18">
-        <v>1.029203519803472</v>
+        <v>1.022634799737577</v>
       </c>
       <c r="F18">
-        <v>1.0417782703159</v>
+        <v>1.033931992999152</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058694732649649</v>
+        <v>1.054316293036924</v>
       </c>
       <c r="J18">
-        <v>1.043271230533332</v>
+        <v>1.032917031084569</v>
       </c>
       <c r="K18">
-        <v>1.051239960356943</v>
+        <v>1.043123206267871</v>
       </c>
       <c r="L18">
-        <v>1.042536508634906</v>
+        <v>1.036073939388365</v>
       </c>
       <c r="M18">
-        <v>1.054912822869777</v>
+        <v>1.047189638814429</v>
       </c>
       <c r="N18">
-        <v>1.044752795345572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014284292754607</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041630017430744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017633773983892</v>
+        <v>1.006498516514402</v>
       </c>
       <c r="D19">
-        <v>1.038690427780599</v>
+        <v>1.030092852373392</v>
       </c>
       <c r="E19">
-        <v>1.029903419013072</v>
+        <v>1.022972178219987</v>
       </c>
       <c r="F19">
-        <v>1.042474811030641</v>
+        <v>1.034273820816875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059004091328513</v>
+        <v>1.054438638351929</v>
       </c>
       <c r="J19">
-        <v>1.043915926206584</v>
+        <v>1.033185040172643</v>
       </c>
       <c r="K19">
-        <v>1.051811991665984</v>
+        <v>1.043349732502196</v>
       </c>
       <c r="L19">
-        <v>1.043163313205133</v>
+        <v>1.036343340532068</v>
       </c>
       <c r="M19">
-        <v>1.055537716289289</v>
+        <v>1.047464537554505</v>
       </c>
       <c r="N19">
-        <v>1.045398406560628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014378210060783</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041796524244916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014012073281066</v>
+        <v>1.004658423581994</v>
       </c>
       <c r="D20">
-        <v>1.035795096756087</v>
+        <v>1.028808320979559</v>
       </c>
       <c r="E20">
-        <v>1.026752989007449</v>
+        <v>1.021487723436607</v>
       </c>
       <c r="F20">
-        <v>1.039339769321397</v>
+        <v>1.032768958914377</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057610326671605</v>
+        <v>1.053904692247614</v>
       </c>
       <c r="J20">
-        <v>1.041013337626753</v>
+        <v>1.032010944406523</v>
       </c>
       <c r="K20">
-        <v>1.049236438285391</v>
+        <v>1.042362844003362</v>
       </c>
       <c r="L20">
-        <v>1.040341184217963</v>
+        <v>1.035162974871042</v>
       </c>
       <c r="M20">
-        <v>1.052724434942015</v>
+        <v>1.046259080674375</v>
       </c>
       <c r="N20">
-        <v>1.042491695972081</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013973090826052</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041102657442639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001792281795747</v>
+        <v>0.9985496998110576</v>
       </c>
       <c r="D21">
-        <v>1.02603604636857</v>
+        <v>1.024546650497502</v>
       </c>
       <c r="E21">
-        <v>1.016131088781218</v>
+        <v>1.016568325302702</v>
       </c>
       <c r="F21">
-        <v>1.028774806906302</v>
+        <v>1.027780954354523</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0528886307439</v>
+        <v>1.052113041804698</v>
       </c>
       <c r="J21">
-        <v>1.031215259100219</v>
+        <v>1.028108182875509</v>
       </c>
       <c r="K21">
-        <v>1.040540394646745</v>
+        <v>1.039077438517972</v>
       </c>
       <c r="L21">
-        <v>1.030813164403914</v>
+        <v>1.031242460420092</v>
       </c>
       <c r="M21">
-        <v>1.043230795743001</v>
+        <v>1.042254453431189</v>
       </c>
       <c r="N21">
-        <v>1.032679703050185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012624028740589</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038783008391946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9937308282182111</v>
+        <v>0.9945987783663627</v>
       </c>
       <c r="D22">
-        <v>1.019607147533364</v>
+        <v>1.021790524478814</v>
       </c>
       <c r="E22">
-        <v>1.009131023096824</v>
+        <v>1.013392344797446</v>
       </c>
       <c r="F22">
-        <v>1.02181643475389</v>
+        <v>1.024560324359247</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049759631008331</v>
+        <v>1.050938074457277</v>
       </c>
       <c r="J22">
-        <v>1.024748669085369</v>
+        <v>1.025577880670107</v>
       </c>
       <c r="K22">
-        <v>1.034799939223356</v>
+        <v>1.03694232333271</v>
       </c>
       <c r="L22">
-        <v>1.024523737217488</v>
+        <v>1.028703084767781</v>
       </c>
       <c r="M22">
-        <v>1.036967748516247</v>
+        <v>1.039660448241096</v>
       </c>
       <c r="N22">
-        <v>1.026203929735786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011745649444491</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037259976357665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.998042834580342</v>
+        <v>0.9966864234141886</v>
       </c>
       <c r="D23">
-        <v>1.02304495275787</v>
+        <v>1.02324136810335</v>
       </c>
       <c r="E23">
-        <v>1.012874541374187</v>
+        <v>1.015066987472777</v>
       </c>
       <c r="F23">
-        <v>1.025537249426841</v>
+        <v>1.026259115417974</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051434572568726</v>
+        <v>1.051556326437395</v>
       </c>
       <c r="J23">
-        <v>1.028207795866755</v>
+        <v>1.026909857053376</v>
       </c>
       <c r="K23">
-        <v>1.037870731186197</v>
+        <v>1.03806356620272</v>
       </c>
       <c r="L23">
-        <v>1.027888186786701</v>
+        <v>1.030039718951497</v>
       </c>
       <c r="M23">
-        <v>1.0403177296597</v>
+        <v>1.041026528964111</v>
       </c>
       <c r="N23">
-        <v>1.029667968873968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012204503631615</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038043143011915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014211067427076</v>
+        <v>1.004733965935167</v>
       </c>
       <c r="D24">
-        <v>1.035954147380784</v>
+        <v>1.028853001360339</v>
       </c>
       <c r="E24">
-        <v>1.026926063218528</v>
+        <v>1.021544457770933</v>
       </c>
       <c r="F24">
-        <v>1.039511980123108</v>
+        <v>1.032827151507486</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057686978732941</v>
+        <v>1.053920482532766</v>
       </c>
       <c r="J24">
-        <v>1.041172838979772</v>
+        <v>1.032050995689295</v>
       </c>
       <c r="K24">
-        <v>1.049377976305743</v>
+        <v>1.042391688532947</v>
       </c>
       <c r="L24">
-        <v>1.040496270152471</v>
+        <v>1.035203504958931</v>
       </c>
       <c r="M24">
-        <v>1.05287901852003</v>
+        <v>1.046301308553913</v>
       </c>
       <c r="N24">
-        <v>1.042651423835317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013981438911017</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04109583749054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031553341802546</v>
+        <v>1.01369467199464</v>
       </c>
       <c r="D25">
-        <v>1.04982924806247</v>
+        <v>1.035120021664089</v>
       </c>
       <c r="E25">
-        <v>1.042020281883357</v>
+        <v>1.028789728000362</v>
       </c>
       <c r="F25">
-        <v>1.054539088266166</v>
+        <v>1.040169579863339</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064332591154592</v>
+        <v>1.056499132993968</v>
       </c>
       <c r="J25">
-        <v>1.055063551177965</v>
+        <v>1.037769784741991</v>
       </c>
       <c r="K25">
-        <v>1.061700316676603</v>
+        <v>1.047196553730623</v>
       </c>
       <c r="L25">
-        <v>1.053999516880194</v>
+        <v>1.040956974693694</v>
       </c>
       <c r="M25">
-        <v>1.066345892777079</v>
+        <v>1.052174750649644</v>
       </c>
       <c r="N25">
-        <v>1.056561862438119</v>
+        <v>1.015957510275058</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044490224896763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020522863567367</v>
+        <v>1.018501248763361</v>
       </c>
       <c r="D2">
-        <v>1.039892543944716</v>
+        <v>1.0373493386065</v>
       </c>
       <c r="E2">
-        <v>1.034327291001485</v>
+        <v>1.032481296928332</v>
       </c>
       <c r="F2">
-        <v>1.045778390960448</v>
+        <v>1.04360686345141</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I2">
-        <v>1.058407411990749</v>
+        <v>1.057067990070004</v>
       </c>
       <c r="J2">
-        <v>1.042106599587694</v>
+        <v>1.040142329373366</v>
       </c>
       <c r="K2">
-        <v>1.050822740222657</v>
+        <v>1.048311750938408</v>
       </c>
       <c r="L2">
-        <v>1.045328242527132</v>
+        <v>1.043505928599838</v>
       </c>
       <c r="M2">
-        <v>1.056634777121727</v>
+        <v>1.054490360329603</v>
       </c>
       <c r="N2">
-        <v>1.017446512270274</v>
+        <v>1.01752784290677</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047006315366144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045239546348458</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024765811478463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025360820450328</v>
+        <v>1.023000883556528</v>
       </c>
       <c r="D3">
-        <v>1.043287922957521</v>
+        <v>1.040388574579239</v>
       </c>
       <c r="E3">
-        <v>1.038267413586505</v>
+        <v>1.036111340699744</v>
       </c>
       <c r="F3">
-        <v>1.049766559271488</v>
+        <v>1.047267044472947</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.0597389845336</v>
+        <v>1.058209408556922</v>
       </c>
       <c r="J3">
-        <v>1.045183214309163</v>
+        <v>1.042883572668567</v>
       </c>
       <c r="K3">
-        <v>1.053395339291174</v>
+        <v>1.050529496147784</v>
       </c>
       <c r="L3">
-        <v>1.048432994119216</v>
+        <v>1.046302114072832</v>
       </c>
       <c r="M3">
-        <v>1.059799932403769</v>
+        <v>1.05732885021987</v>
       </c>
       <c r="N3">
-        <v>1.018507640494362</v>
+        <v>1.018274738574186</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04882269476405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046804739826438</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025259630383659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028428694439107</v>
+        <v>1.025856879005619</v>
       </c>
       <c r="D4">
-        <v>1.045443492456744</v>
+        <v>1.042320031789137</v>
       </c>
       <c r="E4">
-        <v>1.040771539281045</v>
+        <v>1.038420979924727</v>
       </c>
       <c r="F4">
-        <v>1.052300176853817</v>
+        <v>1.049594697989022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060570721016521</v>
+        <v>1.058921261895109</v>
       </c>
       <c r="J4">
-        <v>1.047132124623458</v>
+        <v>1.044621517890475</v>
       </c>
       <c r="K4">
-        <v>1.05502272842573</v>
+        <v>1.051933173836431</v>
       </c>
       <c r="L4">
-        <v>1.050401583304289</v>
+        <v>1.048076798920992</v>
       </c>
       <c r="M4">
-        <v>1.061805845858296</v>
+        <v>1.059129254067833</v>
       </c>
       <c r="N4">
-        <v>1.019179704664996</v>
+        <v>1.018748336365641</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049974256640366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047798204982368</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025569816600437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029709000937567</v>
+        <v>1.027049145027533</v>
       </c>
       <c r="D5">
-        <v>1.046345391104296</v>
+        <v>1.043128714630732</v>
       </c>
       <c r="E5">
-        <v>1.041818631166905</v>
+        <v>1.039387172923863</v>
       </c>
       <c r="F5">
-        <v>1.053359350754602</v>
+        <v>1.050568221611871</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060916195694942</v>
+        <v>1.059216817827226</v>
       </c>
       <c r="J5">
-        <v>1.047946639294655</v>
+        <v>1.045348174351651</v>
       </c>
       <c r="K5">
-        <v>1.055703480367305</v>
+        <v>1.052520787301627</v>
       </c>
       <c r="L5">
-        <v>1.05122461815804</v>
+        <v>1.048819098142063</v>
       </c>
       <c r="M5">
-        <v>1.062644217781124</v>
+        <v>1.059882083592029</v>
       </c>
       <c r="N5">
-        <v>1.019461489087555</v>
+        <v>1.01894701923882</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050462665138926</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048221474904522</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025699721792899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029929227617837</v>
+        <v>1.02725399953761</v>
       </c>
       <c r="D6">
-        <v>1.046502720847477</v>
+        <v>1.043269935645107</v>
       </c>
       <c r="E6">
-        <v>1.041999734652979</v>
+        <v>1.039554118901125</v>
       </c>
       <c r="F6">
-        <v>1.053542534364041</v>
+        <v>1.050736512314384</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060977211637653</v>
+        <v>1.059269201930437</v>
       </c>
       <c r="J6">
-        <v>1.048088790100302</v>
+        <v>1.045474986354153</v>
       </c>
       <c r="K6">
-        <v>1.055823665901663</v>
+        <v>1.052624876886834</v>
       </c>
       <c r="L6">
-        <v>1.051368104028022</v>
+        <v>1.048948455616424</v>
       </c>
       <c r="M6">
-        <v>1.062790328979439</v>
+        <v>1.060013320789704</v>
       </c>
       <c r="N6">
-        <v>1.019511807482235</v>
+        <v>1.018982485660668</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05055626658277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048304571074236</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025723462208239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028462266112919</v>
+        <v>1.025899026550223</v>
       </c>
       <c r="D7">
-        <v>1.045472916113428</v>
+        <v>1.042355114047799</v>
       </c>
       <c r="E7">
-        <v>1.040801470084719</v>
+        <v>1.038458497361907</v>
       </c>
       <c r="F7">
-        <v>1.052330436581553</v>
+        <v>1.049631716009398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060584538046725</v>
+        <v>1.058938158419656</v>
       </c>
       <c r="J7">
-        <v>1.047159064970255</v>
+        <v>1.04465680181297</v>
       </c>
       <c r="K7">
-        <v>1.055049005983229</v>
+        <v>1.051965034761518</v>
       </c>
       <c r="L7">
-        <v>1.050428342067229</v>
+        <v>1.048111050535129</v>
       </c>
       <c r="M7">
-        <v>1.061832980054516</v>
+        <v>1.059163062583483</v>
       </c>
       <c r="N7">
-        <v>1.01919214180127</v>
+        <v>1.018786732497951</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050012675234223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047842585192928</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025579910113416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022191834806581</v>
+        <v>1.020087789297404</v>
       </c>
       <c r="D8">
-        <v>1.041070409043154</v>
+        <v>1.038429517811969</v>
       </c>
       <c r="E8">
-        <v>1.035688548282361</v>
+        <v>1.033766487930701</v>
       </c>
       <c r="F8">
-        <v>1.047156288803394</v>
+        <v>1.044899949244531</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058875124261216</v>
+        <v>1.057483774787164</v>
       </c>
       <c r="J8">
-        <v>1.043175315408692</v>
+        <v>1.041128911823037</v>
       </c>
       <c r="K8">
-        <v>1.05172137373499</v>
+        <v>1.049112931213301</v>
       </c>
       <c r="L8">
-        <v>1.046405857988876</v>
+        <v>1.044507700456584</v>
       </c>
       <c r="M8">
-        <v>1.057733249948931</v>
+        <v>1.055504222279074</v>
       </c>
       <c r="N8">
-        <v>1.017819240611051</v>
+        <v>1.017880565785512</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047664347848256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045830953080526</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024950390404308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,93 +831,111 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01060981018304</v>
+        <v>1.009339526836471</v>
       </c>
       <c r="D9">
-        <v>1.032951931209164</v>
+        <v>1.031179258203683</v>
       </c>
       <c r="E9">
-        <v>1.026287288404977</v>
+        <v>1.025127368950052</v>
       </c>
       <c r="F9">
-        <v>1.037634670071409</v>
+        <v>1.036181957494938</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055611797207244</v>
+        <v>1.054682696028308</v>
       </c>
       <c r="J9">
-        <v>1.035793392512172</v>
+        <v>1.034566738894511</v>
       </c>
       <c r="K9">
-        <v>1.045532088489797</v>
+        <v>1.043785946393033</v>
       </c>
       <c r="L9">
-        <v>1.038967798714963</v>
+        <v>1.037825514720974</v>
       </c>
       <c r="M9">
-        <v>1.05014529655633</v>
+        <v>1.048714068863359</v>
       </c>
       <c r="N9">
-        <v>1.015269208301549</v>
+        <v>1.016100888612119</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043285042902057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042061071374022</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023749162287691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>1.002513975784713</v>
+        <v>1.001898694811269</v>
       </c>
       <c r="D10">
-        <v>1.027298488501264</v>
+        <v>1.026183492363135</v>
       </c>
       <c r="E10">
-        <v>1.019752262746133</v>
+        <v>1.019188090760932</v>
       </c>
       <c r="F10">
-        <v>1.031010653181446</v>
+        <v>1.030177892717704</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053268829578161</v>
+        <v>1.052688859245521</v>
       </c>
       <c r="J10">
-        <v>1.030628204210157</v>
+        <v>1.030037183008882</v>
       </c>
       <c r="K10">
-        <v>1.041191753184586</v>
+        <v>1.040095558661427</v>
       </c>
       <c r="L10">
-        <v>1.033773812856129</v>
+        <v>1.03321933042664</v>
       </c>
       <c r="M10">
-        <v>1.044841699096157</v>
+        <v>1.044022846072479</v>
       </c>
       <c r="N10">
-        <v>1.013486372387574</v>
+        <v>1.014989239299869</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040232871727157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039470144434757</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022910258536285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9989304532629686</v>
+        <v>0.9986955467082117</v>
       </c>
       <c r="D11">
-        <v>1.024808384481982</v>
+        <v>1.024050441463575</v>
       </c>
       <c r="E11">
-        <v>1.01687252993717</v>
+        <v>1.016653767045442</v>
       </c>
       <c r="F11">
-        <v>1.028089821995476</v>
+        <v>1.027606331952825</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052222677984212</v>
+        <v>1.051832407545826</v>
       </c>
       <c r="J11">
-        <v>1.028347794419827</v>
+        <v>1.028122693332576</v>
       </c>
       <c r="K11">
-        <v>1.039277140405679</v>
+        <v>1.038532620460661</v>
       </c>
       <c r="L11">
-        <v>1.031483118578533</v>
+        <v>1.03126830627709</v>
       </c>
       <c r="M11">
-        <v>1.042500759958685</v>
+        <v>1.042025758806762</v>
       </c>
       <c r="N11">
-        <v>1.012704293414683</v>
+        <v>1.014710607495222</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038911819405768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038400969358905</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022562857459328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9975715830551382</v>
+        <v>0.9974906238969083</v>
       </c>
       <c r="D12">
-        <v>1.023861260007966</v>
+        <v>1.023245662135161</v>
       </c>
       <c r="E12">
-        <v>1.015779990981984</v>
+        <v>1.015701233031319</v>
       </c>
       <c r="F12">
-        <v>1.026981873987977</v>
+        <v>1.026638925949603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051820996263216</v>
+        <v>1.051506343925749</v>
       </c>
       <c r="J12">
-        <v>1.027479074622626</v>
+        <v>1.027401566028947</v>
       </c>
       <c r="K12">
-        <v>1.038545162205173</v>
+        <v>1.037940663253166</v>
       </c>
       <c r="L12">
-        <v>1.030610989567836</v>
+        <v>1.030533680185601</v>
       </c>
       <c r="M12">
-        <v>1.041609778881283</v>
+        <v>1.041272963189686</v>
       </c>
       <c r="N12">
-        <v>1.012403743528051</v>
+        <v>1.014620977966687</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038394291966823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03798244856056</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022430292986602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9978614276851585</v>
+        <v>0.9977473518440573</v>
       </c>
       <c r="D13">
-        <v>1.024062500340258</v>
+        <v>1.023416301257381</v>
       </c>
       <c r="E13">
-        <v>1.016012560131277</v>
+        <v>1.015903706846028</v>
       </c>
       <c r="F13">
-        <v>1.027217807284186</v>
+        <v>1.026844640736158</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051906210226239</v>
+        <v>1.051575304377234</v>
       </c>
       <c r="J13">
-        <v>1.027663619079333</v>
+        <v>1.027554383692248</v>
       </c>
       <c r="K13">
-        <v>1.03870024104358</v>
+        <v>1.038065648236939</v>
       </c>
       <c r="L13">
-        <v>1.0307962565346</v>
+        <v>1.03068939754037</v>
       </c>
       <c r="M13">
-        <v>1.041799148260268</v>
+        <v>1.041432628440587</v>
       </c>
       <c r="N13">
-        <v>1.012467063464394</v>
+        <v>1.014638618526758</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038501455689137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038068091013224</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022457968392681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9988174476444655</v>
+        <v>0.9985952097483823</v>
       </c>
       <c r="D14">
-        <v>1.024729285691465</v>
+        <v>1.023983067571964</v>
       </c>
       <c r="E14">
-        <v>1.016781472074492</v>
+        <v>1.016574239504622</v>
       </c>
       <c r="F14">
-        <v>1.027997515157366</v>
+        <v>1.02752559772469</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052189077305075</v>
+        <v>1.051805036675737</v>
       </c>
       <c r="J14">
-        <v>1.02827522956191</v>
+        <v>1.02806228440561</v>
       </c>
       <c r="K14">
-        <v>1.039215819172775</v>
+        <v>1.038482836159832</v>
       </c>
       <c r="L14">
-        <v>1.031410268152614</v>
+        <v>1.031206783655784</v>
       </c>
       <c r="M14">
-        <v>1.042426375903827</v>
+        <v>1.041962756774715</v>
       </c>
       <c r="N14">
-        <v>1.01267896438617</v>
+        <v>1.014702494121111</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038867401099753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038364604732697</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022551573486965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9994090356138399</v>
+        <v>0.999120832373854</v>
       </c>
       <c r="D15">
-        <v>1.025143486882048</v>
+        <v>1.024336154035706</v>
       </c>
       <c r="E15">
-        <v>1.01725826349309</v>
+        <v>1.016990995236577</v>
       </c>
       <c r="F15">
-        <v>1.028480834069695</v>
+        <v>1.027948633664907</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052364951659956</v>
+        <v>1.051948437815595</v>
       </c>
       <c r="J15">
-        <v>1.028655182239849</v>
+        <v>1.02837892096157</v>
       </c>
       <c r="K15">
-        <v>1.039536932600056</v>
+        <v>1.038743807404489</v>
       </c>
       <c r="L15">
-        <v>1.03179172967933</v>
+        <v>1.031529256819754</v>
       </c>
       <c r="M15">
-        <v>1.042815854765011</v>
+        <v>1.042292938361008</v>
       </c>
       <c r="N15">
-        <v>1.012811640236649</v>
+        <v>1.014745797660125</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03910027855039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038555527825492</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022610775337354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,93 +1223,111 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002789868598542</v>
+        <v>1.00214511832876</v>
       </c>
       <c r="D16">
-        <v>1.027503160210586</v>
+        <v>1.026361124717981</v>
       </c>
       <c r="E16">
-        <v>1.019980958075147</v>
+        <v>1.019389633693689</v>
       </c>
       <c r="F16">
-        <v>1.031241430589319</v>
+        <v>1.030381743833359</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053358829044409</v>
+        <v>1.052764463528042</v>
       </c>
       <c r="J16">
-        <v>1.030816800207708</v>
+        <v>1.030197371626752</v>
       </c>
       <c r="K16">
-        <v>1.041357705726811</v>
+        <v>1.040234862400301</v>
       </c>
       <c r="L16">
-        <v>1.033962937515914</v>
+        <v>1.033381733815582</v>
       </c>
       <c r="M16">
-        <v>1.045033536502638</v>
+        <v>1.044188157253317</v>
       </c>
       <c r="N16">
-        <v>1.01355993073469</v>
+        <v>1.015025421132713</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040390758024964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039613179053906</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022946410146382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.004882941355031</v>
+        <v>1.0040360795683</v>
       </c>
       <c r="D17">
-        <v>1.028965545795567</v>
+        <v>1.027629850086835</v>
       </c>
       <c r="E17">
-        <v>1.021669049243458</v>
+        <v>1.020894038447709</v>
       </c>
       <c r="F17">
-        <v>1.032952742476743</v>
+        <v>1.031905775823967</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053970383494469</v>
+        <v>1.053273105365435</v>
       </c>
       <c r="J17">
-        <v>1.032154759978445</v>
+        <v>1.031340035892725</v>
       </c>
       <c r="K17">
-        <v>1.042484074770689</v>
+        <v>1.041170171415712</v>
       </c>
       <c r="L17">
-        <v>1.035307517369054</v>
+        <v>1.034545375836566</v>
       </c>
       <c r="M17">
-        <v>1.046406649121304</v>
+        <v>1.045376589072117</v>
       </c>
       <c r="N17">
-        <v>1.01402308124056</v>
+        <v>1.015239039705335</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.0411896967338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040277275824179</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023157905438967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006081835419593</v>
+        <v>1.00512700458512</v>
       </c>
       <c r="D18">
-        <v>1.029799766856391</v>
+        <v>1.028358614231515</v>
       </c>
       <c r="E18">
-        <v>1.022634799737577</v>
+        <v>1.021761738393402</v>
       </c>
       <c r="F18">
-        <v>1.033931992999152</v>
+        <v>1.032784157527963</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054316293036924</v>
+        <v>1.053562986803765</v>
       </c>
       <c r="J18">
-        <v>1.032917031084569</v>
+        <v>1.031997709387992</v>
       </c>
       <c r="K18">
-        <v>1.043123206267871</v>
+        <v>1.041705159292334</v>
       </c>
       <c r="L18">
-        <v>1.036073939388365</v>
+        <v>1.035215118811994</v>
       </c>
       <c r="M18">
-        <v>1.047189638814429</v>
+        <v>1.046060011603859</v>
       </c>
       <c r="N18">
-        <v>1.014284292754607</v>
+        <v>1.015374173363843</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041630017430744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040642821878111</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023277699325519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006498516514402</v>
+        <v>1.005506930044284</v>
       </c>
       <c r="D19">
-        <v>1.030092852373392</v>
+        <v>1.028615742714012</v>
       </c>
       <c r="E19">
-        <v>1.022972178219987</v>
+        <v>1.022065646650666</v>
       </c>
       <c r="F19">
-        <v>1.034273820816875</v>
+        <v>1.033091592056175</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054438638351929</v>
+        <v>1.053666223123931</v>
       </c>
       <c r="J19">
-        <v>1.033185040172643</v>
+        <v>1.032230073623471</v>
       </c>
       <c r="K19">
-        <v>1.043349732502196</v>
+        <v>1.041896162761965</v>
       </c>
       <c r="L19">
-        <v>1.036343340532068</v>
+        <v>1.035451504949048</v>
       </c>
       <c r="M19">
-        <v>1.047464537554505</v>
+        <v>1.046300947918819</v>
       </c>
       <c r="N19">
-        <v>1.014378210060783</v>
+        <v>1.015426419757292</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041796524244916</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040784836015336</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023321731285139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004658423581994</v>
+        <v>1.003832545345402</v>
       </c>
       <c r="D20">
-        <v>1.028808320979559</v>
+        <v>1.02749288007131</v>
       </c>
       <c r="E20">
-        <v>1.021487723436607</v>
+        <v>1.020731794559151</v>
       </c>
       <c r="F20">
-        <v>1.032768958914377</v>
+        <v>1.031741502516028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053904692247614</v>
+        <v>1.053218178080656</v>
       </c>
       <c r="J20">
-        <v>1.032010944406523</v>
+        <v>1.03121652404495</v>
       </c>
       <c r="K20">
-        <v>1.042362844003362</v>
+        <v>1.041068933807774</v>
       </c>
       <c r="L20">
-        <v>1.035162974871042</v>
+        <v>1.034419639547126</v>
       </c>
       <c r="M20">
-        <v>1.046259080674375</v>
+        <v>1.045248270057476</v>
       </c>
       <c r="N20">
-        <v>1.013973090826052</v>
+        <v>1.015214229607271</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041102657442639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040204243037225</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023134857748717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9985496998110576</v>
+        <v>0.9983867445566187</v>
       </c>
       <c r="D21">
-        <v>1.024546650497502</v>
+        <v>1.02384988712648</v>
       </c>
       <c r="E21">
-        <v>1.016568325302702</v>
+        <v>1.016415080255483</v>
       </c>
       <c r="F21">
-        <v>1.027780954354523</v>
+        <v>1.027360893517537</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052113041804698</v>
+        <v>1.051755430543176</v>
       </c>
       <c r="J21">
-        <v>1.028108182875509</v>
+        <v>1.027952070510124</v>
       </c>
       <c r="K21">
-        <v>1.039077438517972</v>
+        <v>1.038393078367561</v>
       </c>
       <c r="L21">
-        <v>1.031242460420092</v>
+        <v>1.031091997393017</v>
       </c>
       <c r="M21">
-        <v>1.042254453431189</v>
+        <v>1.041841806664932</v>
       </c>
       <c r="N21">
-        <v>1.012624028740589</v>
+        <v>1.014760044627777</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038783008391946</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038315903204668</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022535925014799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9945987783663627</v>
+        <v>0.9948684462164166</v>
       </c>
       <c r="D22">
-        <v>1.021790524478814</v>
+        <v>1.021496620340746</v>
       </c>
       <c r="E22">
-        <v>1.013392344797446</v>
+        <v>1.013632811299102</v>
       </c>
       <c r="F22">
-        <v>1.024560324359247</v>
+        <v>1.024536614734211</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050938074457277</v>
+        <v>1.050794258599622</v>
       </c>
       <c r="J22">
-        <v>1.025577880670107</v>
+        <v>1.025835532340419</v>
       </c>
       <c r="K22">
-        <v>1.03694232333271</v>
+        <v>1.036653923909971</v>
       </c>
       <c r="L22">
-        <v>1.028703084767781</v>
+        <v>1.028938952350271</v>
       </c>
       <c r="M22">
-        <v>1.039660448241096</v>
+        <v>1.039637179409834</v>
       </c>
       <c r="N22">
-        <v>1.011745649444491</v>
+        <v>1.014452141936351</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037259976357665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03707153848339</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022142767953638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9966864234141886</v>
+        <v>0.9967084235581336</v>
       </c>
       <c r="D23">
-        <v>1.02324136810335</v>
+        <v>1.022720339971254</v>
       </c>
       <c r="E23">
-        <v>1.015066987472777</v>
+        <v>1.015082036615264</v>
       </c>
       <c r="F23">
-        <v>1.026259115417974</v>
+        <v>1.026009966565572</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051556326437395</v>
+        <v>1.051291911760352</v>
       </c>
       <c r="J23">
-        <v>1.026909857053376</v>
+        <v>1.026930906999571</v>
       </c>
       <c r="K23">
-        <v>1.03806356620272</v>
+        <v>1.037552039481081</v>
       </c>
       <c r="L23">
-        <v>1.030039718951497</v>
+        <v>1.030054488053896</v>
       </c>
       <c r="M23">
-        <v>1.041026528964111</v>
+        <v>1.040781887318726</v>
       </c>
       <c r="N23">
-        <v>1.012204503631615</v>
+        <v>1.014564106651934</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038043143011915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037695999054381</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022342123137078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004733965935167</v>
+        <v>1.003902297932879</v>
       </c>
       <c r="D24">
-        <v>1.028853001360339</v>
+        <v>1.027531292251517</v>
       </c>
       <c r="E24">
-        <v>1.021544457770933</v>
+        <v>1.020783496476395</v>
       </c>
       <c r="F24">
-        <v>1.032827151507486</v>
+        <v>1.031794101902803</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053920482532766</v>
+        <v>1.053230655265804</v>
       </c>
       <c r="J24">
-        <v>1.032050995689295</v>
+        <v>1.031250955202616</v>
       </c>
       <c r="K24">
-        <v>1.042391688532947</v>
+        <v>1.041091582821746</v>
       </c>
       <c r="L24">
-        <v>1.035203504958931</v>
+        <v>1.03445520307893</v>
       </c>
       <c r="M24">
-        <v>1.046301308553913</v>
+        <v>1.045284971664039</v>
       </c>
       <c r="N24">
-        <v>1.013981438911017</v>
+        <v>1.015215804812494</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04109583749054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040190363070433</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023136823408614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01369467199464</v>
+        <v>1.01218338659469</v>
       </c>
       <c r="D25">
-        <v>1.035120021664089</v>
+        <v>1.033103033870617</v>
       </c>
       <c r="E25">
-        <v>1.028789728000362</v>
+        <v>1.027409823738673</v>
       </c>
       <c r="F25">
-        <v>1.040169579863339</v>
+        <v>1.038487529930419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056499132993968</v>
+        <v>1.055440073652254</v>
       </c>
       <c r="J25">
-        <v>1.037769784741991</v>
+        <v>1.036307574507574</v>
       </c>
       <c r="K25">
-        <v>1.047196553730623</v>
+        <v>1.045208317122447</v>
       </c>
       <c r="L25">
-        <v>1.040956974693694</v>
+        <v>1.039597032893637</v>
       </c>
       <c r="M25">
-        <v>1.052174750649644</v>
+        <v>1.050516374342426</v>
       </c>
       <c r="N25">
-        <v>1.015957510275058</v>
+        <v>1.016545163374356</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044490224896763</v>
+        <v>1.043097891928184</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024074113744587</v>
       </c>
     </row>
   </sheetData>
